--- a/t1_confection/A1_Outputs/reference_previous/A-O_Fleet_GUA.xlsx
+++ b/t1_confection/A1_Outputs/reference_previous/A-O_Fleet_GUA.xlsx
@@ -3081,8 +3081,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -3320,10 +3320,24 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFE5D6-DD24-4CD2-85F0-514CE1361F0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E40334-29E6-41F9-9959-0BE296794CB7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B8BFF7-4241-4BC9-8690-48F22DD8AFB6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9DBE59-E8BF-494E-8320-F2915A6DF63A}"/>
 </file>